--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="316">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -351,7 +351,7 @@
 </t>
   </si>
   <si>
-    <t>投与ラインの情報</t>
+    <t>指示ライン</t>
   </si>
   <si>
     <t>指示ラインを格納する拡張</t>
@@ -364,10 +364,10 @@
 </t>
   </si>
   <si>
-    <t>投与機器の情報</t>
-  </si>
-  <si>
-    <t>投与機器の情報を記述する拡張。</t>
+    <t>投与装置</t>
+  </si>
+  <si>
+    <t>投与装置を格納する拡張</t>
   </si>
   <si>
     <t>Dosage.modifierExtension</t>
@@ -505,8 +505,8 @@
     <t>Dosage.asNeeded[x]</t>
   </si>
   <si>
-    <t>boolean
-CodeableConcept</t>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>「頓用」指示</t>
@@ -519,12 +519,6 @@
     <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationAsNeededConditionMERIT9_VS</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
   </si>
   <si>
@@ -590,6 +584,9 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
@@ -763,10 +760,6 @@
   </si>
   <si>
     <t>Dosage.method.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>If this coding was chosen directly by the user</t>
@@ -2901,11 +2894,13 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2938,15 +2933,15 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2972,16 +2967,16 @@
         <v>138</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3010,7 +3005,7 @@
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -3028,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3043,15 +3038,15 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3077,16 +3072,16 @@
         <v>138</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3115,7 +3110,7 @@
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3133,7 +3128,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3148,15 +3143,15 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3182,16 +3177,16 @@
         <v>138</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3216,14 +3211,14 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3240,7 +3235,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3255,15 +3250,15 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3366,7 +3361,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3471,7 +3466,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3494,19 +3489,19 @@
         <v>117</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3543,7 +3538,7 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
@@ -3553,7 +3548,7 @@
         <v>96</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3568,18 +3563,18 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
@@ -3601,19 +3596,19 @@
         <v>117</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3642,7 +3637,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -3660,7 +3655,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3675,15 +3670,15 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3786,7 +3781,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3891,7 +3886,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3914,68 +3909,68 @@
         <v>117</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3990,15 +3985,15 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4024,13 +4019,13 @@
         <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4080,7 +4075,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4095,15 +4090,15 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4126,17 +4121,17 @@
         <v>117</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4185,7 +4180,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4200,15 +4195,15 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4234,14 +4229,14 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4290,7 +4285,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4305,15 +4300,15 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4336,19 +4331,19 @@
         <v>117</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4397,7 +4392,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4412,18 +4407,18 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>74</v>
@@ -4445,19 +4440,19 @@
         <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4486,7 +4481,7 @@
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4504,7 +4499,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4519,15 +4514,15 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4630,7 +4625,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4735,7 +4730,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4758,26 +4753,26 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4814,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4834,15 +4829,15 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4868,13 +4863,13 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4924,7 +4919,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4939,15 +4934,15 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4970,17 +4965,17 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5029,7 +5024,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5044,15 +5039,15 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5078,14 +5073,14 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5134,7 +5129,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5149,15 +5144,15 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5180,19 +5175,19 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5241,7 +5236,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5256,15 +5251,15 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5348,7 +5343,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5363,15 +5358,15 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5394,13 +5389,13 @@
         <v>117</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5451,7 +5446,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5469,12 +5464,12 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5577,7 +5572,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5682,7 +5677,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5708,16 +5703,16 @@
         <v>138</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -5746,7 +5741,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -5764,7 +5759,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -5782,12 +5777,12 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5810,19 +5805,19 @@
         <v>117</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -5859,17 +5854,17 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -5884,18 +5879,18 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>74</v>
@@ -5917,19 +5912,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -5978,7 +5973,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -5987,24 +5982,24 @@
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
@@ -6026,19 +6021,19 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6087,7 +6082,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6096,21 +6091,21 @@
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6133,19 +6128,19 @@
         <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6182,17 +6177,17 @@
         <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6207,18 +6202,18 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
@@ -6240,19 +6235,19 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6301,7 +6296,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6310,13 +6305,13 @@
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>122</v>
@@ -6324,10 +6319,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
@@ -6349,19 +6344,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6410,7 +6405,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6419,24 +6414,24 @@
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AI48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
@@ -6458,19 +6453,19 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6519,7 +6514,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6528,21 +6523,21 @@
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6565,19 +6560,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6626,7 +6621,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6635,13 +6630,13 @@
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>122</v>
@@ -6649,7 +6644,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6672,19 +6667,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -6733,7 +6728,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6742,21 +6737,21 @@
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6779,19 +6774,19 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -6840,7 +6835,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -6849,16 +6844,16 @@
         <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,7 +512,7 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓⽤型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
 Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
   </si>
   <si>
@@ -531,11 +531,11 @@
     <t>投与される身体部位</t>
   </si>
   <si>
-    <t>投与される身体部位。外⽤薬で部位を指定する場合に使⽤する。</t>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
   </si>
   <si>
     <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外⽤部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
   </si>
   <si>
     <t>A coded specification of the anatomic site where the medication first enters the body.</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage_Prescription</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="314">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -512,8 +512,8 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
-Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>
     <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
@@ -886,13 +886,10 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -916,10 +913,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めたデータイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。【JP Core仕様】単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -960,13 +957,10 @@
 </t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>単位時間あたり薬剤の投与量</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -5918,10 +5912,10 @@
         <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>275</v>
@@ -5982,16 +5976,16 @@
         <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AI44" t="s" s="2">
+      <c r="AJ44" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="45">
@@ -5999,7 +5993,7 @@
         <v>270</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
@@ -6021,16 +6015,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>275</v>
@@ -6091,21 +6085,21 @@
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6128,7 +6122,7 @@
         <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>259</v>
@@ -6137,10 +6131,10 @@
         <v>260</v>
       </c>
       <c r="M46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6187,7 +6181,7 @@
         <v>277</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6202,18 +6196,18 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
@@ -6235,19 +6229,19 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6296,7 +6290,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6305,13 +6299,13 @@
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>122</v>
@@ -6319,10 +6313,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
@@ -6350,13 +6344,13 @@
         <v>281</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6405,7 +6399,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6414,24 +6408,24 @@
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AI48" t="s" s="2">
+      <c r="AJ48" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
@@ -6453,19 +6447,19 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6514,7 +6508,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6523,21 +6517,21 @@
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6560,19 +6554,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6621,7 +6615,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6630,13 +6624,13 @@
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>122</v>
@@ -6644,7 +6638,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6667,19 +6661,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -6728,7 +6722,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6737,21 +6731,21 @@
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6774,19 +6768,19 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -6835,7 +6829,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -6844,16 +6838,16 @@
         <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはユーザは直接適用するものではなく、JP_MedicationRequestとJP_MedicationRequestInjectionの共通の親となる抽象プロファイルである。MedicationRequestリソースに対して、内服・外用薬剤処方、注射・点滴などのデータを送受信するため、JP_MedicationRequestとJP_MedicationRequestInjectionの各プロファイルの基礎となる制約と拡張のうち共通部分を定めている。</t>
+    <t>処方用法に関するプロファイル</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Dosage</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosageBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -502,6 +502,538 @@
     <t>QSET&lt;TS&gt; (GTS)</t>
   </si>
   <si>
+    <t>Dosage.timing.id</t>
+  </si>
+  <si>
+    <t>Dosage.timing.extension</t>
+  </si>
+  <si>
+    <t>Dosage.timing.modifierExtension</t>
+  </si>
+  <si>
+    <t>Dosage.timing.event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>服用もしくは注射を行なうタイミングを示す時刻</t>
+  </si>
+  <si>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
+  </si>
+  <si>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
+    <t>Timing.event</t>
+  </si>
+  <si>
+    <t>QLIST&lt;TS&gt;</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>イベントが発生する時刻</t>
+  </si>
+  <si>
+    <t>イベントがスケジュールされたルールについての記述。</t>
+  </si>
+  <si>
+    <t>スケジュールされたタイミングの多くは規則的な繰り返しで決定されている。</t>
+  </si>
+  <si>
+    <t>Timing.repeat</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+  </si>
+  <si>
+    <t>Implies PIVL or EIVL</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.id</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.extension</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>服用・注射開始日から服用・注射終了日までの全日数</t>
+  </si>
+  <si>
+    <t>服用・注射開始日から服用・注射終了日までの全日数。実投与日数ではないことに注意する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>boundsDuration</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].id</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].extension</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>投薬日数</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].comparator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].unit</t>
+  </si>
+  <si>
+    <t>投薬日数の単位</t>
+  </si>
+  <si>
+    <t>投薬日数の単位文字列。日で固定される</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>UCUM</t>
+  </si>
+  <si>
+    <t>単位コード UCUMを識別するURI。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.bounds[x].code</t>
+  </si>
+  <si>
+    <t>投与日数の単位</t>
+  </si>
+  <si>
+    <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>boundsRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
+</t>
+  </si>
+  <si>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>繰り返し服用もしくは注射回数</t>
+  </si>
+  <si>
+    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
+  </si>
+  <si>
+    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>繰り返しの最大回数</t>
+  </si>
+  <si>
+    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
+  </si>
+  <si>
+    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>継続時間</t>
+  </si>
+  <si>
+    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
+  </si>
+  <si>
+    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
+  </si>
+  <si>
+    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>継続時間(最大値)</t>
+  </si>
+  <si>
+    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>UCUM単位で表される継続時間についての単位。</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する回数、頻度</t>
+  </si>
+  <si>
+    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
+  </si>
+  <si>
+    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する最大回数、最大頻度</t>
+  </si>
+  <si>
+    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>イベントが発生する頻度に対応する期間</t>
+  </si>
+  <si>
+    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>期間の上限（3-4時間）</t>
+  </si>
+  <si>
+    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>期間を表すUCUM単位。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
+  </si>
+  <si>
+    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>一日の間で投与される時刻</t>
+  </si>
+  <si>
+    <t>一日の間で指定された投与される時刻。</t>
+  </si>
+  <si>
+    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>投薬期間についてのコード</t>
+  </si>
+  <si>
+    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
+  </si>
+  <si>
+    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
+  </si>
+  <si>
+    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分、前後）</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.code</t>
+  </si>
+  <si>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
+  </si>
+  <si>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
     <t>Dosage.asNeeded[x]</t>
   </si>
   <si>
@@ -664,246 +1196,207 @@
     <t>Dosage.method.coding.system</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>Dosage.method.text</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>薬剤の投与量</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>力価区分</t>
+  </si>
+  <si>
+    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+  </si>
+  <si>
+    <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>unitDigit2</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>Dosage.method.text</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element
-</t>
-  </si>
-  <si>
-    <t>薬剤の投与量</t>
-  </si>
-  <si>
-    <t>薬剤が投与される量</t>
-  </si>
-  <si>
-    <t>TQ1-2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>力価区分</t>
-  </si>
-  <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
-  </si>
-  <si>
-    <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
-  </si>
-  <si>
-    <t>RXO-21; RXE-23</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t>Range
-Quantity</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>RXO-2, RXE-3</t>
-  </si>
-  <si>
-    <t>doseRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>doseQuantity</t>
@@ -913,27 +1406,18 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>1回投与量</t>
+  </si>
+  <si>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
+【JP Core仕様】1回の投与量を指定する。単位は医薬品単位略号を使用することが望ましい。</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
+    <t xml:space="preserve">Ratio
+</t>
   </si>
   <si>
     <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.@@ -957,10 +1441,16 @@
 </t>
   </si>
   <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+    <t>単位時間内での薬剤量</t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤量。JP Coreでは1日投与量を表す。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】日本ではまだ一般的に利用されている一日量での処方のためにrateRatioを用いる。</t>
+  </si>
+  <si>
+    <t>患者の体内に導入される、あるいはされた薬剤の速度を指定する。一般的には、たとえば1時間あたり100mlあるいは100ml/hrのように注射の速度を示す。たとえば、500mlを2時間でというように、単位時間あたりの速さを表現することもできる。その他、200マイクログラム/minや200マイクログラム/1分, 1 リットル/8時間のような表現もできる。しばしば、投与速度を投与総量/ 投与総時間で表ような場合に投与時間が明示される（たとえば、500ml/2時間という場合は、投与時間が2時間であることを示している）。しかしながら、投与速度で投与時間が明示されない場合（たとえば、250ml/毎時)は、timing.repeat.durationが注射の総投与時間を示すためには必要となる。</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -970,19 +1460,115 @@
     <t>RTO</t>
   </si>
   <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
+    <t>Dosage.doseAndRate.rate[x].id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
+</t>
+  </si>
+  <si>
+    <t>1日投与量</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Denominator value</t>
+  </si>
+  <si>
+    <t>The value of the denominator.</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.value</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.comparator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
+    <t>単位時間あたり薬剤の投与量</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+  </si>
+  <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
@@ -1298,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1307,8 +1893,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1995,7 +2581,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2100,7 +2686,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -2850,20 +3436,18 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2912,7 +3496,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2924,29 +3508,29 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2955,23 +3539,21 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2995,87 +3577,89 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3100,11 +3684,13 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3122,30 +3708,30 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3156,7 +3742,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3168,19 +3754,17 @@
         <v>117</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3205,13 +3789,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3229,13 +3813,13 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3244,15 +3828,15 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3272,19 +3856,21 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3332,7 +3918,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3344,10 +3930,10 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3355,18 +3941,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3378,17 +3964,15 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3425,31 +4009,31 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>87</v>
@@ -3460,11 +4044,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3480,23 +4064,21 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3532,9 +4114,11 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3542,7 +4126,7 @@
         <v>96</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3554,22 +4138,20 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3590,20 +4172,16 @@
         <v>117</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3627,35 +4205,35 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3664,17 +4242,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3692,16 +4272,16 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3752,7 +4332,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3764,10 +4344,10 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -3775,18 +4355,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3798,17 +4378,15 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3845,31 +4423,31 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>87</v>
@@ -3880,18 +4458,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3900,29 +4478,27 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>74</v>
@@ -3952,42 +4528,42 @@
         <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4010,18 +4586,20 @@
         <v>117</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4069,7 +4647,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4084,15 +4662,15 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4103,34 +4681,36 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="Q27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4150,13 +4730,13 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4174,7 +4754,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4189,15 +4769,15 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4223,21 +4803,21 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4279,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4294,15 +4874,15 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4325,26 +4905,24 @@
         <v>117</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>74</v>
@@ -4386,7 +4964,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4395,31 +4973,29 @@
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
@@ -4434,26 +5010,26 @@
         <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>74</v>
@@ -4471,11 +5047,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4493,13 +5071,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4508,17 +5086,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4539,15 +5119,17 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -4596,7 +5178,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4605,32 +5187,32 @@
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -4639,21 +5221,23 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4689,34 +5273,34 @@
         <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4724,7 +5308,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4732,7 +5316,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>82</v>
@@ -4747,26 +5331,24 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>74</v>
@@ -4808,7 +5390,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4823,15 +5405,15 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4854,18 +5436,20 @@
         <v>117</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4913,7 +5497,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4928,15 +5512,15 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4959,17 +5543,19 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5018,7 +5604,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5033,15 +5619,15 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5064,18 +5650,18 @@
         <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5099,13 +5685,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5123,7 +5709,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5138,15 +5724,15 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5169,24 +5755,24 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5230,7 +5816,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5245,15 +5831,15 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5276,20 +5862,18 @@
         <v>117</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5337,7 +5921,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5352,15 +5936,15 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5371,7 +5955,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5383,15 +5967,17 @@
         <v>117</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -5440,13 +6026,13 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5455,15 +6041,15 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5483,18 +6069,20 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5543,7 +6131,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5555,10 +6143,10 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -5566,18 +6154,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -5586,19 +6174,19 @@
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5624,46 +6212,46 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -5671,7 +6259,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5682,7 +6270,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -5694,20 +6282,18 @@
         <v>117</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -5731,11 +6317,11 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -5753,13 +6339,13 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -5768,15 +6354,15 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5787,7 +6373,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -5799,20 +6385,18 @@
         <v>117</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -5848,23 +6432,25 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -5873,19 +6459,17 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>74</v>
       </c>
@@ -5894,7 +6478,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -5903,22 +6487,22 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -5943,13 +6527,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -5967,34 +6551,32 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6012,23 +6594,21 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N45" t="s" s="2">
         <v>275</v>
       </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6076,7 +6656,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6085,21 +6665,21 @@
         <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6122,20 +6702,18 @@
         <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>138</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6159,29 +6737,29 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6196,19 +6774,17 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6226,23 +6802,21 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6290,7 +6864,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6299,25 +6873,23 @@
         <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>122</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6335,22 +6907,22 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6375,13 +6947,11 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6399,7 +6969,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6408,25 +6978,23 @@
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>286</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6444,22 +7012,22 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6484,13 +7052,11 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>348</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -6508,7 +7074,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6517,21 +7083,21 @@
         <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>293</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6551,22 +7117,22 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>301</v>
+        <v>138</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6591,13 +7157,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -6615,7 +7181,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6624,21 +7190,21 @@
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>122</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6661,20 +7227,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -6722,7 +7284,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6731,32 +7293,32 @@
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -6768,20 +7330,18 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>288</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -6817,37 +7377,4257 @@
         <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AB53" s="2"/>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X62" s="2"/>
+      <c r="Y62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AB75" s="2"/>
+      <c r="AC75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AB77" s="2"/>
+      <c r="AC77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core MedicationDosage Profile</t>
+    <t>JP Core MedicationDosage DataType</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処方用法に関するプロファイル</t>
+    <t>処方用法に関するDataType</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -739,654 +739,631 @@
     <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
-    <t>boundsRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
+    <t>Dosage.timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>繰り返し服用もしくは注射回数</t>
+  </si>
+  <si>
+    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
+  </si>
+  <si>
+    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>繰り返しの最大回数</t>
+  </si>
+  <si>
+    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
+  </si>
+  <si>
+    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>継続時間</t>
+  </si>
+  <si>
+    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
+  </si>
+  <si>
+    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
+  </si>
+  <si>
+    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>継続時間(最大値)</t>
+  </si>
+  <si>
+    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>UCUM単位で表される継続時間についての単位。</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する回数、頻度</t>
+  </si>
+  <si>
+    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
+  </si>
+  <si>
+    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する最大回数、最大頻度</t>
+  </si>
+  <si>
+    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>イベントが発生する頻度に対応する期間</t>
+  </si>
+  <si>
+    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>期間の上限（3-4時間）</t>
+  </si>
+  <si>
+    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>期間を表すUCUM単位。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
+  </si>
+  <si>
+    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>一日の間で投与される時刻</t>
+  </si>
+  <si>
+    <t>一日の間で指定された投与される時刻。</t>
+  </si>
+  <si>
+    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>投薬期間についてのコード</t>
+  </si>
+  <si>
+    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
+  </si>
+  <si>
+    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
+  </si>
+  <si>
+    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分、前後）</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.code</t>
+  </si>
+  <si>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
+  </si>
+  <si>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>「頓用」指示</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>投与される身体部位</t>
+  </si>
+  <si>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
+  </si>
+  <si>
+    <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>投与経路</t>
+  </si>
+  <si>
+    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>Dosage.method.text</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>薬剤の投与量</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>力価区分</t>
+  </si>
+  <si>
+    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+  </si>
+  <si>
+    <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>繰り返し服用もしくは注射回数</t>
-  </si>
-  <si>
-    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
-  </si>
-  <si>
-    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
-  </si>
-  <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.count</t>
-  </si>
-  <si>
-    <t>PIVL.count</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>繰り返しの最大回数</t>
-  </si>
-  <si>
-    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
-  </si>
-  <si>
-    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>継続時間</t>
-  </si>
-  <si>
-    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
-  </si>
-  <si>
-    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
-  </si>
-  <si>
-    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>PIVL.phase</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>継続時間(最大値)</t>
-  </si>
-  <si>
-    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>UCUM単位で表される継続時間についての単位。</t>
-  </si>
-  <si>
-    <t>A unit of time (units from UCUM).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>PIVL.phase.unit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>期間内にイベントが発生する回数、頻度</t>
-  </si>
-  <si>
-    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
-  </si>
-  <si>
-    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
-  </si>
-  <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>期間内にイベントが発生する最大回数、最大頻度</t>
-  </si>
-  <si>
-    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.period</t>
-  </si>
-  <si>
-    <t>イベントが発生する頻度に対応する期間</t>
-  </si>
-  <si>
-    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
-  </si>
-  <si>
-    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.period</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>期間の上限（3-4時間）</t>
-  </si>
-  <si>
-    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
-  </si>
-  <si>
-    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>期間を表すUCUM単位。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
-  </si>
-  <si>
-    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time
-</t>
-  </si>
-  <si>
-    <t>一日の間で投与される時刻</t>
-  </si>
-  <si>
-    <t>一日の間で指定された投与される時刻。</t>
-  </si>
-  <si>
-    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>投薬期間についてのコード</t>
-  </si>
-  <si>
-    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
-  </si>
-  <si>
-    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
-  </si>
-  <si>
-    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
-  </si>
-  <si>
-    <t>Real world event relating to the schedule.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.when</t>
-  </si>
-  <si>
-    <t>EIVL.event</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>イベントからの時間(分、前後）</t>
-  </si>
-  <si>
-    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.offset</t>
-  </si>
-  <si>
-    <t>EIVL.offset</t>
-  </si>
-  <si>
-    <t>Dosage.timing.code</t>
-  </si>
-  <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
-  </si>
-  <si>
-    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
-  </si>
-  <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】JAMI標準用法コード(16桁)を使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageJAMI_VS</t>
-  </si>
-  <si>
-    <t>Timing.code</t>
-  </si>
-  <si>
-    <t>QSC.code</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>「頓用」指示</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
-Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>TQ1-9</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>投与される身体部位</t>
-  </si>
-  <si>
-    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
-  </si>
-  <si>
-    <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>投与経路</t>
-  </si>
-  <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
-【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>unitDigit1</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
-  </si>
-  <si>
-    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>unitDigit2</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>Dosage.method.text</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t>薬剤の投与量</t>
-  </si>
-  <si>
-    <t>薬剤が投与される量</t>
-  </si>
-  <si>
-    <t>TQ1-2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>力価区分</t>
-  </si>
-  <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
-  </si>
-  <si>
-    <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
-  </si>
-  <si>
-    <t>RXO-21; RXE-23</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1464,6 +1441,16 @@
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x].extension</t>
+  </si>
+  <si>
+    <t>strengthType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
+</t>
+  </si>
+  <si>
+    <t>投与量が製剤単位か成分単位かを格納する</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x].numerator</t>
@@ -5094,11 +5081,9 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B31" t="s" s="2">
         <v>233</v>
       </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5116,7 +5101,7 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>234</v>
@@ -5125,12 +5110,14 @@
         <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5178,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5187,16 +5174,16 @@
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
@@ -5224,20 +5211,18 @@
         <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5285,7 +5270,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5300,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5308,7 +5293,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5331,18 +5316,20 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5390,7 +5377,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5405,7 +5392,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5413,7 +5400,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5439,16 +5426,16 @@
         <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5497,7 +5484,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5512,7 +5499,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5520,7 +5507,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5543,20 +5530,18 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5580,13 +5565,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5604,7 +5589,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5619,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5627,7 +5612,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5650,22 +5635,24 @@
         <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5685,31 +5672,31 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5724,7 +5711,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5732,7 +5719,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5755,24 +5742,22 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5816,7 +5801,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5831,7 +5816,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5839,7 +5824,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5862,16 +5847,16 @@
         <v>117</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5921,7 +5906,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5936,7 +5921,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5944,7 +5929,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5970,13 +5955,13 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6026,7 +6011,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6041,7 +6026,7 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -6049,7 +6034,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6072,16 +6057,16 @@
         <v>117</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6107,13 +6092,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6131,7 +6116,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6146,7 +6131,7 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -6154,7 +6139,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6165,7 +6150,7 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6180,13 +6165,13 @@
         <v>197</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6214,11 +6199,9 @@
       <c r="W41" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="X41" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6236,13 +6219,13 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6251,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6259,7 +6242,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6282,16 +6265,16 @@
         <v>117</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6317,11 +6300,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6339,7 +6324,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6362,7 +6347,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6385,18 +6370,20 @@
         <v>117</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6420,13 +6407,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6459,7 +6446,7 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>87</v>
+        <v>307</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6467,7 +6454,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6478,7 +6465,7 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6490,20 +6477,18 @@
         <v>117</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6527,37 +6512,37 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6566,7 +6551,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6574,7 +6559,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6597,16 +6582,16 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6632,13 +6617,11 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6656,7 +6639,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6671,7 +6654,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6679,7 +6662,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6702,7 +6685,7 @@
         <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>323</v>
@@ -6737,11 +6720,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>326</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6759,7 +6744,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6774,15 +6759,15 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6805,18 +6790,20 @@
         <v>117</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6840,13 +6827,11 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6864,7 +6849,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6916,13 +6901,13 @@
         <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6951,7 +6936,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6984,15 +6969,15 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7018,16 +7003,16 @@
         <v>138</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -7052,11 +7037,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7074,7 +7061,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7089,15 +7076,15 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7117,23 +7104,19 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>352</v>
+        <v>84</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7157,13 +7140,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>356</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7181,7 +7164,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7193,29 +7176,29 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>358</v>
+        <v>87</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>74</v>
@@ -7227,15 +7210,17 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7272,31 +7257,31 @@
         <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>87</v>
@@ -7307,11 +7292,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7327,21 +7312,23 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>91</v>
+        <v>356</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7377,11 +7364,9 @@
         <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7389,7 +7374,7 @@
         <v>96</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7401,20 +7386,22 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7423,7 +7410,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7435,19 +7422,19 @@
         <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7472,29 +7459,29 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7509,19 +7496,17 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7539,23 +7524,19 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>373</v>
+        <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7579,11 +7560,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7601,41 +7584,41 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7647,15 +7630,17 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7692,31 +7677,31 @@
         <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>87</v>
@@ -7727,18 +7712,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7747,27 +7732,29 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>91</v>
+        <v>373</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>74</v>
@@ -7797,42 +7784,42 @@
         <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7840,7 +7827,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>82</v>
@@ -7855,68 +7842,66 @@
         <v>117</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N57" t="s" s="2">
         <v>384</v>
       </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7931,15 +7916,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7962,18 +7947,18 @@
         <v>117</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8021,7 +8006,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8036,15 +8021,15 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8067,17 +8052,17 @@
         <v>117</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8126,7 +8111,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8141,15 +8126,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8172,15 +8157,17 @@
         <v>117</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
         <v>406</v>
       </c>
@@ -8254,9 +8241,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8277,7 +8266,7 @@
         <v>117</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>411</v>
@@ -8286,10 +8275,10 @@
         <v>412</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8314,13 +8303,11 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8338,13 +8325,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8353,19 +8340,17 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>417</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8383,23 +8368,19 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8423,11 +8404,13 @@
         <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>421</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8445,41 +8428,41 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>369</v>
+        <v>86</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8491,15 +8474,17 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8536,31 +8521,31 @@
         <v>74</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>87</v>
@@ -8571,18 +8556,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8591,27 +8576,29 @@
         <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>92</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>74</v>
@@ -8641,42 +8628,42 @@
         <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8684,7 +8671,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>82</v>
@@ -8699,26 +8686,24 @@
         <v>117</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N65" t="s" s="2">
         <v>384</v>
       </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>74</v>
@@ -8760,7 +8745,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8775,15 +8760,15 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8806,18 +8791,18 @@
         <v>117</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8865,7 +8850,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8880,15 +8865,15 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8911,17 +8896,17 @@
         <v>117</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8970,7 +8955,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8985,15 +8970,15 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9016,15 +9001,17 @@
         <v>117</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
         <v>406</v>
       </c>
@@ -9098,7 +9085,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9121,19 +9108,19 @@
         <v>117</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>330</v>
+        <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>133</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>414</v>
+        <v>135</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9182,7 +9169,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9197,15 +9184,15 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9216,7 +9203,7 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9228,20 +9215,16 @@
         <v>117</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9289,13 +9272,13 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
@@ -9304,15 +9287,15 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9323,7 +9306,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -9332,16 +9315,16 @@
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>428</v>
+        <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>429</v>
+        <v>85</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9392,41 +9375,41 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>427</v>
+        <v>86</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -9438,15 +9421,17 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9483,31 +9468,31 @@
         <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>87</v>
@@ -9518,18 +9503,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>74</v>
@@ -9538,21 +9523,23 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>91</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9576,54 +9563,52 @@
         <v>74</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>97</v>
+        <v>425</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9643,13 +9628,13 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>138</v>
+        <v>432</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>434</v>
@@ -9683,54 +9668,56 @@
         <v>74</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AB74" s="2"/>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>74</v>
+        <v>439</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9751,19 +9738,19 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9800,44 +9787,44 @@
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AK75" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9855,22 +9842,22 @@
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9907,19 +9894,17 @@
         <v>74</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB76" s="2"/>
       <c r="AC76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9928,23 +9913,25 @@
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>74</v>
       </c>
@@ -9962,22 +9949,22 @@
         <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K77" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="L77" t="s" s="2">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -10014,17 +10001,19 @@
         <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10033,25 +10022,23 @@
         <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>74</v>
+        <v>437</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>457</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10072,20 +10059,16 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>460</v>
+        <v>84</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10133,7 +10116,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>452</v>
+        <v>86</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10142,32 +10125,32 @@
         <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>464</v>
+        <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>465</v>
+        <v>87</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>74</v>
@@ -10179,15 +10162,17 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10224,31 +10209,31 @@
         <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>87</v>
@@ -10259,18 +10244,20 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="C80" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>74</v>
@@ -10282,17 +10269,15 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>462</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>91</v>
+        <v>426</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10329,16 +10314,16 @@
         <v>74</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
         <v>97</v>
@@ -10356,7 +10341,7 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
@@ -10364,7 +10349,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10387,16 +10372,16 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10446,7 +10431,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10455,21 +10440,21 @@
         <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10492,13 +10477,13 @@
         <v>117</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10549,7 +10534,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10564,7 +10549,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10572,7 +10557,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10675,7 +10660,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10780,7 +10765,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10806,10 +10791,10 @@
         <v>189</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>191</v>
@@ -10887,7 +10872,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10994,7 +10979,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11020,10 +11005,10 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -11099,7 +11084,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11125,10 +11110,10 @@
         <v>217</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
@@ -11204,7 +11189,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11230,10 +11215,10 @@
         <v>197</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>228</v>
@@ -11311,7 +11296,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11334,19 +11319,19 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
@@ -11395,7 +11380,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11404,13 +11389,13 @@
         <v>82</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>122</v>
@@ -11418,7 +11403,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11441,19 +11426,19 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -11502,7 +11487,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11511,21 +11496,21 @@
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11548,19 +11533,19 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -11609,7 +11594,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11618,16 +11603,16 @@
         <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>237</v>
+        <v>437</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1414,7 +1414,7 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
@@ -1453,6 +1453,19 @@
     <t>投与量が製剤単位か成分単位かを格納する</t>
   </si>
   <si>
+    <t>rateComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
+</t>
+  </si>
+  <si>
+    <t>投与速度コメント</t>
+  </si>
+  <si>
+    <t>投与速度コメントを格納するための拡張</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x].numerator</t>
   </si>
   <si>
@@ -1473,6 +1486,75 @@
 qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t>投与量（体積）</t>
+  </si>
+  <si>
+    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
+  </si>
+  <si>
+    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
+  </si>
+  <si>
+    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>投与量（体積）の単位</t>
+  </si>
+  <si>
+    <t>投与量（体積）の単位。</t>
+  </si>
+  <si>
+    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>コード化された単位表現を規定するシステム</t>
+  </si>
+  <si>
+    <t>単位をコード化して表現するシステムについてのID。</t>
+  </si>
+  <si>
+    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
+    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x].denominator</t>
   </si>
   <si>
@@ -1480,10 +1562,7 @@
 </t>
   </si>
   <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>単位時間</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
@@ -1501,31 +1580,25 @@
     <t>Dosage.doseAndRate.rate[x].denominator.value</t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x].denominator.comparator</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x].denominator.unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>単位時間の単位。UCUMを使用する。</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x].denominator.system</t>
   </si>
   <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x].denominator.code</t>
@@ -1540,10 +1613,10 @@
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
+    <t>単位時間内での薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -1871,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AK100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10349,9 +10422,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10360,7 +10435,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>74</v>
@@ -10378,11 +10453,9 @@
         <v>466</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M81" t="s" s="2">
         <v>467</v>
       </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10431,30 +10504,30 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>468</v>
+        <v>97</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>469</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10474,18 +10547,20 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10534,7 +10609,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10543,21 +10618,21 @@
         <v>82</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>74</v>
+        <v>437</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>74</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10660,7 +10735,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10765,7 +10840,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10773,7 +10848,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>82</v>
@@ -10791,13 +10866,13 @@
         <v>189</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>192</v>
@@ -10807,7 +10882,7 @@
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>74</v>
@@ -10872,7 +10947,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10898,14 +10973,16 @@
         <v>197</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N86" t="s" s="2">
-        <v>200</v>
+        <v>482</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -10979,7 +11056,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11005,21 +11082,23 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N87" t="s" s="2">
-        <v>211</v>
+        <v>486</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>74</v>
@@ -11084,7 +11163,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11110,21 +11189,23 @@
         <v>217</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="N88" t="s" s="2">
-        <v>220</v>
+        <v>491</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>74</v>
@@ -11142,13 +11223,11 @@
         <v>74</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>74</v>
+        <v>492</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>74</v>
@@ -11189,7 +11268,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11197,7 +11276,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>82</v>
@@ -11215,13 +11294,13 @@
         <v>197</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>228</v>
+        <v>496</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>229</v>
@@ -11231,7 +11310,7 @@
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>74</v>
@@ -11249,13 +11328,11 @@
         <v>74</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>74</v>
+        <v>492</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>74</v>
@@ -11296,7 +11373,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11316,23 +11393,19 @@
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11380,7 +11453,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11389,21 +11462,21 @@
         <v>82</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11426,20 +11499,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>496</v>
+        <v>84</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>74</v>
       </c>
@@ -11487,7 +11556,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>495</v>
+        <v>86</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11496,32 +11565,32 @@
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>439</v>
+        <v>87</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>74</v>
@@ -11533,20 +11602,18 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>442</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>496</v>
+        <v>91</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>496</v>
+        <v>92</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>74</v>
       </c>
@@ -11582,36 +11649,884 @@
         <v>74</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AF92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH92" t="s" s="2">
+      <c r="L93" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X95" s="2"/>
+      <c r="Y95" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X96" s="2"/>
+      <c r="Y96" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH98" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AI92" t="s" s="2">
+      <c r="AI98" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI99" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AJ92" t="s" s="2">
+      <c r="AJ99" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK92" t="s" s="2">
+      <c r="AK99" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>440</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処方用法に関するDataType</t>
+    <t>このプロファイルは内服用法の制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -674,7 +674,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>日</t>
+    <t>day</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -1346,20 +1346,37 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
+    <t>Quantity
+Range</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>1回投与量</t>
+  </si>
+  <si>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
+【JP Core仕様】1回の投与量を指定する。単位は医薬品単位略号を使用することが望ましい。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1376,18 +1393,27 @@
     <t>SN (see also Range) or CQ</t>
   </si>
   <si>
-    <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
+    <t>doseRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
 </t>
   </si>
   <si>
-    <t>1回投与量</t>
-  </si>
-  <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
-【JP Core仕様】1回の投与量を指定する。単位は医薬品単位略号を使用することが望ましい。</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1414,215 +1440,48 @@
     <t>rateRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerDay}
+</t>
+  </si>
+  <si>
+    <t>１日当たりでの薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
+</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤量</t>
-  </si>
-  <si>
-    <t>単位時間内での薬剤量。JP Coreでは1日投与量を表す。</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】日本ではまだ一般的に利用されている一日量での処方のためにrateRatioを用いる。</t>
-  </si>
-  <si>
-    <t>患者の体内に導入される、あるいはされた薬剤の速度を指定する。一般的には、たとえば1時間あたり100mlあるいは100ml/hrのように注射の速度を示す。たとえば、500mlを2時間でというように、単位時間あたりの速さを表現することもできる。その他、200マイクログラム/minや200マイクログラム/1分, 1 リットル/8時間のような表現もできる。しばしば、投与速度を投与総量/ 投与総時間で表ような場合に投与時間が明示される（たとえば、500ml/2時間という場合は、投与時間が2時間であることを示している）。しかしながら、投与速度で投与時間が明示されない場合（たとえば、250ml/毎時)は、timing.repeat.durationが注射の総投与時間を示すためには必要となる。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].extension</t>
-  </si>
-  <si>
-    <t>strengthType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
+    <t>単位時間内での薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
-  </si>
-  <si>
-    <t>投与量が製剤単位か成分単位かを格納する</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
-</t>
-  </si>
-  <si>
-    <t>1日投与量</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t>投与量（体積）</t>
-  </si>
-  <si>
-    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
-  </si>
-  <si>
-    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
-  </si>
-  <si>
-    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位。</t>
-  </si>
-  <si>
-    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>コード化された単位表現を規定するシステム</t>
-  </si>
-  <si>
-    <t>単位をコード化して表現するシステムについてのID。</t>
-  </si>
-  <si>
-    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
-    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>単位時間</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.comparator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>単位時間の単位</t>
-  </si>
-  <si>
-    <t>単位時間の単位。UCUMを使用する。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerAdministration</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
@@ -1944,7 +1803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK100"/>
+  <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1953,7 +1812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -9701,7 +9560,7 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>432</v>
@@ -9772,16 +9631,16 @@
         <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>440</v>
       </c>
     </row>
     <row r="75">
@@ -9789,7 +9648,7 @@
         <v>431</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>74</v>
@@ -9811,16 +9670,16 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>436</v>
@@ -9881,23 +9740,25 @@
         <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9915,22 +9776,22 @@
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9967,17 +9828,19 @@
         <v>74</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -9986,25 +9849,23 @@
         <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10022,16 +9883,16 @@
         <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>455</v>
@@ -10074,19 +9935,17 @@
         <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10095,23 +9954,25 @@
         <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10132,16 +9993,20 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>83</v>
+        <v>460</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10189,7 +10054,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>86</v>
+        <v>453</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10198,32 +10063,34 @@
         <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>87</v>
+        <v>464</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="C79" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>74</v>
@@ -10235,18 +10102,20 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>90</v>
+        <v>466</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>91</v>
+        <v>448</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>92</v>
+        <v>448</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10282,46 +10151,44 @@
         <v>74</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>97</v>
+        <v>453</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>450</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>87</v>
+        <v>451</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>74</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>74</v>
       </c>
@@ -10342,16 +10209,20 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="K80" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
       </c>
@@ -10399,34 +10270,32 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>97</v>
+        <v>467</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>463</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>74</v>
+        <v>464</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10435,7 +10304,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>74</v>
@@ -10447,16 +10316,20 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10504,30 +10377,30 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>97</v>
+        <v>471</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>443</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>74</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10550,18 +10423,20 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>74</v>
       </c>
@@ -10609,7 +10484,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10618,1916 +10493,16 @@
         <v>82</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Q86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X88" s="2"/>
-      <c r="Y88" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X89" s="2"/>
-      <c r="Y89" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Q94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X95" s="2"/>
-      <c r="Y95" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X96" s="2"/>
-      <c r="Y96" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1444,10 +1444,10 @@
 </t>
   </si>
   <si>
-    <t>１日当たりでの薬剤の容量（体積）</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>１日当たりでの薬剤の投入量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1462,6 +1462,12 @@
   <si>
     <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
 </t>
+  </si>
+  <si>
+    <t>時間範囲指定された上限下限量</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -4600,7 +4606,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4914,7 +4920,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
@@ -10105,13 +10111,13 @@
         <v>466</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>456</v>
@@ -10186,7 +10192,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10209,19 +10215,19 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>462</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10270,7 +10276,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10293,7 +10299,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10316,19 +10322,19 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10377,7 +10383,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10400,7 +10406,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10423,19 +10429,19 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10484,7 +10490,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1477,7 +1477,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
